--- a/lyric_analysis/visualization.xlsx
+++ b/lyric_analysis/visualization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="12600" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="172">
   <si>
     <t>王力宏</t>
   </si>
@@ -47,12 +47,6 @@
     <t>歌手</t>
   </si>
   <si>
-    <t>积极情绪</t>
-  </si>
-  <si>
-    <t>消极情绪</t>
-  </si>
-  <si>
     <t>album</t>
   </si>
   <si>
@@ -71,24 +65,6 @@
     <t>不愿说再见</t>
   </si>
   <si>
-    <t>《最佳广告主题曲年鉴》</t>
-  </si>
-  <si>
-    <t>花田错</t>
-  </si>
-  <si>
-    <t>《力宏二十 二十周年唯一精选》</t>
-  </si>
-  <si>
-    <t>好心分手</t>
-  </si>
-  <si>
-    <t>《心·跳》</t>
-  </si>
-  <si>
-    <t>竞争对手</t>
-  </si>
-  <si>
     <t>《白纸》</t>
   </si>
   <si>
@@ -113,21 +89,6 @@
     <t>远离伤心</t>
   </si>
   <si>
-    <t>风中的遗憾</t>
-  </si>
-  <si>
-    <t>你不在</t>
-  </si>
-  <si>
-    <t>我完全没有任何理由理你</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>If you know</t>
-  </si>
-  <si>
     <t>《畅爽开怀》</t>
   </si>
   <si>
@@ -161,24 +122,9 @@
     <t>爱的鼓励</t>
   </si>
   <si>
-    <t>《盖世英雄演唱会》</t>
-  </si>
-  <si>
     <t>放开你的心</t>
   </si>
   <si>
-    <t>Everything</t>
-  </si>
-  <si>
-    <t>柴米油盐酱醋茶</t>
-  </si>
-  <si>
-    <t>有了你就足够</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Follow Me Live </t>
-  </si>
-  <si>
     <t>《周杰伦 2004 无与伦比 演唱会 Live CD》</t>
   </si>
   <si>
@@ -200,45 +146,15 @@
     <t>《周杰伦同名专辑》</t>
   </si>
   <si>
-    <t>伊斯坦堡</t>
-  </si>
-  <si>
     <t>《魔杰座》</t>
   </si>
   <si>
-    <t>龙战骑士</t>
-  </si>
-  <si>
-    <t>《叶惠美》</t>
-  </si>
-  <si>
-    <t>晴天</t>
-  </si>
-  <si>
     <t>《哎呦，不错哦》</t>
   </si>
   <si>
-    <t>听爸爸的话</t>
-  </si>
-  <si>
-    <t>以父之名</t>
-  </si>
-  <si>
-    <t>梯田</t>
-  </si>
-  <si>
-    <t>《七里香》</t>
-  </si>
-  <si>
-    <t>借口</t>
-  </si>
-  <si>
     <t>《范特西》</t>
   </si>
   <si>
-    <t>阳明山</t>
-  </si>
-  <si>
     <t>《天台 电影原声带》</t>
   </si>
   <si>
@@ -257,30 +173,12 @@
     <t>你是我的Ok绷</t>
   </si>
   <si>
-    <t>鞋子特大号</t>
-  </si>
-  <si>
-    <t>说走就走</t>
-  </si>
-  <si>
-    <t>《十一月的萧邦》</t>
-  </si>
-  <si>
-    <t>浪漫手机</t>
-  </si>
-  <si>
-    <t>威廉古堡</t>
-  </si>
-  <si>
     <t>稻香</t>
   </si>
   <si>
     <t>《我很忙》</t>
   </si>
   <si>
-    <t>阳光宅男</t>
-  </si>
-  <si>
     <t>《西界》</t>
   </si>
   <si>
@@ -314,18 +212,9 @@
     <t>《江南》</t>
   </si>
   <si>
-    <t>害怕</t>
-  </si>
-  <si>
-    <t>江南</t>
-  </si>
-  <si>
     <t>无聊</t>
   </si>
   <si>
-    <t>星空下的吻</t>
-  </si>
-  <si>
     <t>《2017中央电视台春节联欢晚会》</t>
   </si>
   <si>
@@ -344,33 +233,9 @@
     <t>加油</t>
   </si>
   <si>
-    <t>女儿家</t>
-  </si>
-  <si>
-    <t>杀手</t>
-  </si>
-  <si>
-    <t>殺手</t>
-  </si>
-  <si>
-    <t>《中国2010年上海世博会音乐征集 2008年度优秀歌曲》</t>
-  </si>
-  <si>
     <t>梦想的翅膀</t>
   </si>
   <si>
-    <t>发现爱</t>
-  </si>
-  <si>
-    <t>Sixology</t>
-  </si>
-  <si>
-    <t>星球</t>
-  </si>
-  <si>
-    <t>《2011 JJ林俊杰 I AM 世界巡回演唱会 小巨蛋 》</t>
-  </si>
-  <si>
     <t>《零零七》</t>
   </si>
   <si>
@@ -380,9 +245,6 @@
     <t>《24个比利》</t>
   </si>
   <si>
-    <t>华丽进行曲</t>
-  </si>
-  <si>
     <t>限量发行</t>
   </si>
   <si>
@@ -395,9 +257,6 @@
     <t>专属于你</t>
   </si>
   <si>
-    <t>《王者丑生》</t>
-  </si>
-  <si>
     <t>《我的麦克风》</t>
   </si>
   <si>
@@ -407,18 +266,6 @@
     <t>《反转地球》</t>
   </si>
   <si>
-    <t>谢谢</t>
-  </si>
-  <si>
-    <t>Mr. Right</t>
-  </si>
-  <si>
-    <t>How Are You</t>
-  </si>
-  <si>
-    <t>Be With You</t>
-  </si>
-  <si>
     <t>有话直说</t>
   </si>
   <si>
@@ -434,9 +281,6 @@
     <t>《Wu Ha》</t>
   </si>
   <si>
-    <t>声东击西</t>
-  </si>
-  <si>
     <t>《玩酷》</t>
   </si>
   <si>
@@ -452,15 +296,6 @@
     <t>触动</t>
   </si>
   <si>
-    <t>无重力</t>
-  </si>
-  <si>
-    <t>Dont Wanna Say Goodbye</t>
-  </si>
-  <si>
-    <t>Shut up</t>
-  </si>
-  <si>
     <t>春</t>
   </si>
   <si>
@@ -492,6 +327,219 @@
   </si>
   <si>
     <t>有效歌曲数</t>
+  </si>
+  <si>
+    <t>依然爱你</t>
+  </si>
+  <si>
+    <t>爱你等如爱自己</t>
+  </si>
+  <si>
+    <t>《不可能错过你》</t>
+  </si>
+  <si>
+    <t>钓灵感</t>
+  </si>
+  <si>
+    <t>爱依然执着</t>
+  </si>
+  <si>
+    <t>好想你</t>
+  </si>
+  <si>
+    <t>《城市唱游-最佳运动歌曲精选》</t>
+  </si>
+  <si>
+    <t>摇滚怎么了</t>
+  </si>
+  <si>
+    <t>流泪手心</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>半岛铁盒</t>
+  </si>
+  <si>
+    <t>爱情废柴</t>
+  </si>
+  <si>
+    <t>安静</t>
+  </si>
+  <si>
+    <t>彩虹</t>
+  </si>
+  <si>
+    <t>一点点</t>
+  </si>
+  <si>
+    <t>《钢琴恋曲101》</t>
+  </si>
+  <si>
+    <t>龙卷风</t>
+  </si>
+  <si>
+    <t>斗牛</t>
+  </si>
+  <si>
+    <t>我要夏天</t>
+  </si>
+  <si>
+    <t>《十二新作》</t>
+  </si>
+  <si>
+    <t>梦想启动</t>
+  </si>
+  <si>
+    <t>乌克丽丽</t>
+  </si>
+  <si>
+    <t>床边故事</t>
+  </si>
+  <si>
+    <t>告白气球</t>
+  </si>
+  <si>
+    <t>天台的月光</t>
+  </si>
+  <si>
+    <t>爱与希望</t>
+  </si>
+  <si>
+    <t>听不懂</t>
+  </si>
+  <si>
+    <t>心墙</t>
+  </si>
+  <si>
+    <t>豆浆油条</t>
+  </si>
+  <si>
+    <t>真材实料的我</t>
+  </si>
+  <si>
+    <t>《JJ林俊杰_100天》</t>
+  </si>
+  <si>
+    <t>爱不会绝迹</t>
+  </si>
+  <si>
+    <t>到时候再说</t>
+  </si>
+  <si>
+    <t>《壁虎漫步》</t>
+  </si>
+  <si>
+    <t>无所不在</t>
+  </si>
+  <si>
+    <t>Tell me</t>
+  </si>
+  <si>
+    <t>Just When I Needed You Most</t>
+  </si>
+  <si>
+    <t>反转地球</t>
+  </si>
+  <si>
+    <t>爱不离</t>
+  </si>
+  <si>
+    <t>跟我走吧</t>
+  </si>
+  <si>
+    <t>I Like You Like That</t>
+  </si>
+  <si>
+    <t>《中国2010年上海世博会音乐征集 》</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Good Love</t>
+  </si>
+  <si>
+    <t>大男人小女孩 不是我的错 我们都听过 完美的时候 要更多 吵架时候说的太多 有时候的...</t>
+  </si>
+  <si>
+    <t>[[0.015449980903286753, 0.9845500190967132]]</t>
+  </si>
+  <si>
+    <t>压力 张思尔 它偷偷摸摸 混进了人类群中 话没有多说 打开了门的锁 我们的生活 忙得我们...</t>
+  </si>
+  <si>
+    <t>[[0.02242528882948369, 0.9775747111705163]]</t>
+  </si>
+  <si>
+    <t>木乃伊 林秋离简胜 你说要我 死了这颗心 最好永远 存放在埃及 像木乃伊 保持着神秘 敲...</t>
+  </si>
+  <si>
+    <t>[[0.02415136296196596, 0.975848637038034]]</t>
+  </si>
+  <si>
+    <t>无聊 林秋离 没事做就会无聊 没有地方动手动脚 没事做就会无聊 没有地方动手动脚 闷到就...</t>
+  </si>
+  <si>
+    <t>[[0.030917006996304952, 0.969082993003695]]</t>
+  </si>
+  <si>
+    <t>会有那么一天 张思尔 一九四三 世界大战 阿嬷年轻的时候 爷爷爱他那么多 他们感情很深 ...</t>
+  </si>
+  <si>
+    <t>[[0.0379411530166881, 0.9620588469833119]]</t>
+  </si>
+  <si>
+    <t>我很想爱他 何启弘 天空 下起雨了 他撑的伞 在你身边陪着 可是 我不快乐 因为看见 ...</t>
+  </si>
+  <si>
+    <t>[[0.041873167635545494, 0.9581268323644545]]</t>
+  </si>
+  <si>
+    <t>《乌鸦嘴妙女郎 电视原声带》</t>
+  </si>
+  <si>
+    <t>不潮不用花钱 林怡凤RAPJJ Hey greedydont fret What yo...</t>
+  </si>
+  <si>
+    <t>不潮不用花钱</t>
+  </si>
+  <si>
+    <t>[[0.043144112336047535, 0.9568558876639525]]</t>
+  </si>
+  <si>
+    <t>会读书 灯 不能熄灭 熬过今夜 就能从书中逃回到 这个世界 我 我不明白 这个年代 怎么还...</t>
+  </si>
+  <si>
+    <t>[[0.05308425053416821, 0.9469157494658318]]</t>
+  </si>
+  <si>
+    <t>不懂 己经好远了 退也有一点累了 我们都不知道路多远 走到何时才歇一歇 不如就现在吧 让我...</t>
+  </si>
+  <si>
+    <t>不懂</t>
+  </si>
+  <si>
+    <t>[[0.053790769360757884, 0.9462092306392421]]</t>
+  </si>
+  <si>
+    <t>黑武士 五月天阿信 有了天空 为何世界 还有地心引力 有了希望 为何绝望 还是如影随形 ...</t>
+  </si>
+  <si>
+    <t>黑武士</t>
+  </si>
+  <si>
+    <t>[[0.06269589672327458, 0.9373041032767254]]</t>
+  </si>
+  <si>
+    <t>正面情绪</t>
+  </si>
+  <si>
+    <t>负面情绪</t>
   </si>
 </sst>
 </file>
@@ -541,7 +589,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -586,11 +634,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -628,11 +685,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -709,24 +790,6 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -800,7 +863,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>积极情绪</c:v>
+                  <c:v>正面情绪</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -900,16 +963,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.52390513526176041</c:v>
+                  <c:v>0.44849388101672727</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59633953647721849</c:v>
+                  <c:v>0.50716669542702875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61512726041912269</c:v>
+                  <c:v>0.52552580351037148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63103658726444023</c:v>
+                  <c:v>0.50109020995931752</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1462,7 +1525,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>消极情绪</c:v>
+                  <c:v>负面情绪</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1562,16 +1625,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.47609486473823964</c:v>
+                  <c:v>0.55150611898327284</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40366046352278157</c:v>
+                  <c:v>0.49283330457297125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38487273958087737</c:v>
+                  <c:v>0.47447419648962846</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36896341273555971</c:v>
+                  <c:v>0.49890979004068248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2103,6 +2166,13 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -2557,6 +2627,13 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -3011,6 +3088,13 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -3465,6 +3549,13 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -10568,24 +10659,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:D15" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:D15" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D15"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="7"/>
-    <tableColumn id="2" name="album" dataDxfId="6"/>
-    <tableColumn id="3" name="title" dataDxfId="5"/>
-    <tableColumn id="4" name="negative" dataDxfId="4"/>
+    <tableColumn id="5" name="Column2" dataDxfId="0"/>
+    <tableColumn id="2" name="album" dataDxfId="3"/>
+    <tableColumn id="3" name="title" dataDxfId="2"/>
+    <tableColumn id="4" name="negative" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:B5" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:B5" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:B5"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="歌手" dataDxfId="3"/>
-    <tableColumn id="2" name="歌曲数" dataDxfId="2"/>
+    <tableColumn id="1" name="歌手" dataDxfId="7"/>
+    <tableColumn id="2" name="歌曲数" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10856,8 +10947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10880,10 +10971,10 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -10891,18 +10982,18 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>93.255114076593301</v>
+        <v>79.831910820977399</v>
       </c>
       <c r="C2">
-        <v>84.744885923406599</v>
+        <v>98.168089179022502</v>
       </c>
       <c r="D2">
         <f>B2/SUM(B2:C2)</f>
-        <v>0.52390513526176041</v>
+        <v>0.44849388101672727</v>
       </c>
       <c r="E2">
         <f>C2/SUM(B2:C2)</f>
-        <v>0.47609486473823964</v>
+        <v>0.55150611898327284</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -10910,18 +11001,18 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>63.211990866585097</v>
+        <v>53.759669715264998</v>
       </c>
       <c r="C3">
-        <v>42.788009133414803</v>
+        <v>52.240330284734902</v>
       </c>
       <c r="D3">
         <f>B3/SUM(B3:C3)</f>
-        <v>0.59633953647721849</v>
+        <v>0.50716669542702875</v>
       </c>
       <c r="E3">
         <f>C3/SUM(B3:C3)</f>
-        <v>0.40366046352278157</v>
+        <v>0.49283330457297125</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -10929,18 +11020,18 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>65.818616864846007</v>
+        <v>56.2312609756097</v>
       </c>
       <c r="C4">
-        <v>41.181383135153801</v>
+        <v>50.7687390243902</v>
       </c>
       <c r="D4">
         <f>B4/SUM(B4:C4)</f>
-        <v>0.61512726041912269</v>
+        <v>0.52552580351037148</v>
       </c>
       <c r="E4">
         <f>C4/SUM(B4:C4)</f>
-        <v>0.38487273958087737</v>
+        <v>0.47447419648962846</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -10948,18 +11039,18 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>97.179634438723795</v>
+        <v>77.167892333734898</v>
       </c>
       <c r="C5">
-        <v>56.820365561276198</v>
+        <v>76.832107666265102</v>
       </c>
       <c r="D5">
         <f>B5/SUM(B5:C5)</f>
-        <v>0.63103658726444023</v>
+        <v>0.50109020995931752</v>
       </c>
       <c r="E5">
         <f>C5/SUM(B5:C5)</f>
-        <v>0.36896341273555971</v>
+        <v>0.49890979004068248</v>
       </c>
     </row>
   </sheetData>
@@ -10973,10 +11064,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:D87"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89:D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10985,17 +11076,19 @@
     <col min="2" max="2" width="40.77734375" style="1" customWidth="1"/>
     <col min="3" max="4" width="25.21875" style="1" customWidth="1"/>
     <col min="5" max="5" width="28.88671875" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -11003,13 +11096,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>5</v>
@@ -11019,336 +11112,312 @@
       <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0.99012500000000003</v>
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.99162899999999998</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0.98619000000000001</v>
+      <c r="B4" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.987321</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0.97381099999999998</v>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.98655000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="9">
-        <v>0.97365299999999999</v>
+      <c r="D6" s="8">
+        <v>0.98191399999999995</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0.97120799999999996</v>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.98183399999999998</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0.96981099999999998</v>
+      <c r="B8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.96645700000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0.96203700000000003</v>
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.96511899999999995</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0.95897399999999999</v>
+      <c r="B10" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.95635400000000004</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0.95194199999999995</v>
+      <c r="B11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.95312399999999997</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0.92833399999999999</v>
+      <c r="B12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.93974400000000002</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
-        <v>11</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0.92571199999999998</v>
-      </c>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
-        <v>12</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0.92195400000000005</v>
-      </c>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <v>13</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0.89113299999999995</v>
-      </c>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>9</v>
+      <c r="A17" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="13">
         <v>1</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D18" s="8">
-        <v>0.99972899999999998</v>
+        <v>0.99812900000000004</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19" s="13">
         <v>2</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D19" s="8">
-        <v>0.99912699999999999</v>
+        <v>0.987618</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="13">
         <v>3</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="D20" s="8">
-        <v>0.99811799999999995</v>
+        <v>0.98613499999999998</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="13">
         <v>4</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D21" s="8">
-        <v>0.99732200000000004</v>
+        <v>0.97885100000000003</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="13">
         <v>5</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D22" s="8">
-        <v>0.99416700000000002</v>
+        <v>0.978684</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23" s="13">
         <v>6</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D23" s="8">
-        <v>0.99407400000000001</v>
+        <v>0.97780900000000004</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="A24" s="13">
         <v>7</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D24" s="8">
-        <v>0.99197599999999997</v>
+        <v>0.97772700000000001</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25" s="13">
         <v>8</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="D25" s="8">
-        <v>0.98863000000000001</v>
+        <v>0.96129600000000004</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
+      <c r="A26" s="13">
         <v>9</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="D26" s="8">
-        <v>0.98859200000000003</v>
+        <v>0.954314</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
+      <c r="A27" s="13">
         <v>10</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="D27" s="8">
-        <v>0.98675100000000004</v>
+        <v>0.95289800000000002</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -11358,939 +11427,1150 @@
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>9</v>
+      <c r="A29" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
+      <c r="A30" s="13">
         <v>1</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D30" s="8">
-        <v>0.99902000000000002</v>
+        <v>0.99726000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
+      <c r="A31" s="13">
         <v>2</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D31" s="8">
-        <v>0.99211700000000003</v>
+        <v>0.99529699999999999</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
+      <c r="A32" s="13">
         <v>3</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="D32" s="8">
-        <v>0.99150799999999994</v>
+        <v>0.98961600000000005</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
+      <c r="A33" s="13">
         <v>4</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="D33" s="8">
-        <v>0.98456999999999995</v>
+        <v>0.98906899999999998</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="8">
+      <c r="A34" s="13">
         <v>5</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D34" s="8">
-        <v>0.983155</v>
+        <v>0.98821899999999996</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
+      <c r="A35" s="13">
         <v>6</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8">
-        <v>0.976962</v>
+        <v>0.98569799999999996</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="8">
+      <c r="A36" s="13">
         <v>7</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8">
-        <v>0.97505399999999998</v>
+        <v>0.97872400000000004</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="8">
+      <c r="A37" s="13">
         <v>8</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8">
-        <v>0.96471300000000004</v>
+        <v>0.96700900000000001</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="8">
+      <c r="A38" s="13">
         <v>9</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8">
-        <v>0.96450199999999997</v>
+        <v>0.96306999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="8">
+      <c r="A39" s="13">
         <v>10</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8">
-        <v>0.96248599999999995</v>
+        <v>0.95728899999999995</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
-        <v>9</v>
+      <c r="A41" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="8">
+      <c r="A42" s="13">
         <v>1</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D42" s="8">
-        <v>0.99817500000000003</v>
+        <v>0.987541</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="8">
+      <c r="A43" s="13">
         <v>2</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="D43" s="8">
-        <v>0.99711099999999997</v>
+        <v>0.98594400000000004</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="8">
+      <c r="A44" s="13">
         <v>3</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D44" s="8">
-        <v>0.99697199999999997</v>
+        <v>0.98038499999999995</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="8">
+      <c r="A45" s="13">
         <v>4</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="D45" s="8">
-        <v>0.99684399999999995</v>
+        <v>0.977719</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="8">
+      <c r="A46" s="13">
         <v>5</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D46" s="8">
-        <v>0.99490599999999996</v>
+        <v>0.96470500000000003</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="8">
+      <c r="A47" s="13">
         <v>6</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="D47" s="8">
-        <v>0.99428799999999995</v>
+        <v>0.95662100000000005</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="8">
+      <c r="A48" s="13">
         <v>7</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D48" s="8">
-        <v>0.99385000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="8">
+        <v>0.95201999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="13">
         <v>8</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="D49" s="8">
-        <v>0.99276299999999995</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="8">
+        <v>0.94409699999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="13">
         <v>9</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="D50" s="8">
-        <v>0.98890199999999995</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="8">
+        <v>0.93972100000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="13">
         <v>10</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="D51" s="8">
-        <v>0.98667800000000006</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.93945500000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="7" t="s">
-        <v>9</v>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="8">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="13">
         <v>1</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="D54" s="8">
-        <v>0.98894899999999997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="8">
+        <v>0.98455000000000004</v>
+      </c>
+      <c r="E54">
+        <v>400</v>
+      </c>
+      <c r="G54" t="s">
         <v>2</v>
       </c>
+      <c r="H54" t="s">
+        <v>146</v>
+      </c>
+      <c r="I54" t="s">
+        <v>52</v>
+      </c>
+      <c r="J54" t="s">
+        <v>147</v>
+      </c>
+      <c r="K54">
+        <v>1.545E-2</v>
+      </c>
+      <c r="L54">
+        <v>0.98455000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="13">
+        <v>2</v>
+      </c>
       <c r="B55" s="8" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="D55" s="8">
-        <v>0.98856299999999997</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="8">
+        <v>0.97757499999999997</v>
+      </c>
+      <c r="E55">
+        <v>344</v>
+      </c>
+      <c r="G55" t="s">
+        <v>2</v>
+      </c>
+      <c r="H55" t="s">
+        <v>148</v>
+      </c>
+      <c r="I55" t="s">
+        <v>60</v>
+      </c>
+      <c r="J55" t="s">
+        <v>149</v>
+      </c>
+      <c r="K55">
+        <v>2.2425E-2</v>
+      </c>
+      <c r="L55">
+        <v>0.97757499999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="13">
         <v>3</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="D56" s="8">
-        <v>0.97241900000000003</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="8">
+        <v>0.97584899999999997</v>
+      </c>
+      <c r="E56">
+        <v>386</v>
+      </c>
+      <c r="G56" t="s">
+        <v>2</v>
+      </c>
+      <c r="H56" t="s">
+        <v>150</v>
+      </c>
+      <c r="I56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J56" t="s">
+        <v>151</v>
+      </c>
+      <c r="K56">
+        <v>2.4150999999999999E-2</v>
+      </c>
+      <c r="L56">
+        <v>0.97584899999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="13">
         <v>4</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="D57" s="8">
-        <v>0.96577400000000002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="8">
+        <v>0.96908300000000003</v>
+      </c>
+      <c r="E57">
+        <v>367</v>
+      </c>
+      <c r="G57" t="s">
+        <v>2</v>
+      </c>
+      <c r="H57" t="s">
+        <v>152</v>
+      </c>
+      <c r="I57" t="s">
+        <v>62</v>
+      </c>
+      <c r="J57" t="s">
+        <v>153</v>
+      </c>
+      <c r="K57">
+        <v>3.0917E-2</v>
+      </c>
+      <c r="L57">
+        <v>0.96908300000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="13">
         <v>5</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="D58" s="8">
-        <v>0.96428499999999995</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="8">
+        <v>0.962059</v>
+      </c>
+      <c r="E58">
+        <v>392</v>
+      </c>
+      <c r="G58" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" t="s">
+        <v>154</v>
+      </c>
+      <c r="I58" t="s">
+        <v>59</v>
+      </c>
+      <c r="J58" t="s">
+        <v>155</v>
+      </c>
+      <c r="K58">
+        <v>3.7941000000000003E-2</v>
+      </c>
+      <c r="L58">
+        <v>0.962059</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="13">
         <v>6</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D59" s="8">
-        <v>0.93521100000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="8">
+        <v>0.95812699999999995</v>
+      </c>
+      <c r="E59">
+        <v>403</v>
+      </c>
+      <c r="G59" t="s">
+        <v>2</v>
+      </c>
+      <c r="H59" t="s">
+        <v>156</v>
+      </c>
+      <c r="I59" t="s">
+        <v>54</v>
+      </c>
+      <c r="J59" t="s">
+        <v>157</v>
+      </c>
+      <c r="K59">
+        <v>4.1873E-2</v>
+      </c>
+      <c r="L59">
+        <v>0.95812699999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="13">
         <v>7</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="D60" s="8">
-        <v>0.90620699999999998</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="8">
+        <v>0.95685600000000004</v>
+      </c>
+      <c r="E60">
+        <v>431</v>
+      </c>
+      <c r="G60" t="s">
+        <v>2</v>
+      </c>
+      <c r="H60" t="s">
+        <v>159</v>
+      </c>
+      <c r="I60" t="s">
+        <v>160</v>
+      </c>
+      <c r="J60" t="s">
+        <v>161</v>
+      </c>
+      <c r="K60">
+        <v>4.3144000000000002E-2</v>
+      </c>
+      <c r="L60">
+        <v>0.95685600000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="13">
         <v>8</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="D61" s="8">
-        <v>0.90510199999999996</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="8">
+        <v>0.94691599999999998</v>
+      </c>
+      <c r="E61">
+        <v>359</v>
+      </c>
+      <c r="G61" t="s">
+        <v>2</v>
+      </c>
+      <c r="H61" t="s">
+        <v>162</v>
+      </c>
+      <c r="I61" t="s">
+        <v>58</v>
+      </c>
+      <c r="J61" t="s">
+        <v>163</v>
+      </c>
+      <c r="K61">
+        <v>5.3083999999999999E-2</v>
+      </c>
+      <c r="L61">
+        <v>0.94691599999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="13">
         <v>9</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D62" s="8">
-        <v>0.88171299999999997</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="8">
+        <v>0.94620899999999997</v>
+      </c>
+      <c r="E62">
+        <v>384</v>
+      </c>
+      <c r="G62" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62" t="s">
+        <v>164</v>
+      </c>
+      <c r="I62" t="s">
+        <v>165</v>
+      </c>
+      <c r="J62" t="s">
+        <v>166</v>
+      </c>
+      <c r="K62">
+        <v>5.3790999999999999E-2</v>
+      </c>
+      <c r="L62">
+        <v>0.94620899999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="13">
         <v>10</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="D63" s="8">
-        <v>0.87803500000000001</v>
+        <v>0.93730400000000003</v>
+      </c>
+      <c r="E63">
+        <v>393</v>
+      </c>
+      <c r="G63" t="s">
+        <v>2</v>
+      </c>
+      <c r="H63" t="s">
+        <v>167</v>
+      </c>
+      <c r="I63" t="s">
+        <v>168</v>
+      </c>
+      <c r="J63" t="s">
+        <v>169</v>
+      </c>
+      <c r="K63">
+        <v>6.2696000000000002E-2</v>
+      </c>
+      <c r="L63">
+        <v>0.93730400000000003</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="7" t="s">
-        <v>9</v>
+      <c r="A65" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="8">
+      <c r="A66" s="13">
         <v>1</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="D66" s="8">
-        <v>0.99643199999999998</v>
+        <v>0.99307400000000001</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="8">
+      <c r="A67" s="13">
         <v>2</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="D67" s="8">
-        <v>0.99480599999999997</v>
+        <v>0.99081900000000001</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="8">
+      <c r="A68" s="13">
         <v>3</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D68" s="8">
-        <v>0.99342699999999995</v>
+        <v>0.98518499999999998</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="8">
+      <c r="A69" s="13">
         <v>4</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="D69" s="8">
-        <v>0.98810100000000001</v>
+        <v>0.98331599999999997</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="8">
+      <c r="A70" s="13">
         <v>5</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="D70" s="8">
-        <v>0.98797400000000002</v>
+        <v>0.97406199999999998</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="8">
+      <c r="A71" s="13">
         <v>6</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="D71" s="8">
-        <v>0.98778900000000003</v>
+        <v>0.97316800000000003</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="8">
+      <c r="A72" s="13">
         <v>7</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D72" s="8">
-        <v>0.98746199999999995</v>
+        <v>0.96485200000000004</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="8">
+      <c r="A73" s="13">
         <v>8</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="D73" s="8">
-        <v>0.985595</v>
+        <v>0.95835199999999998</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="8">
+      <c r="A74" s="13">
         <v>9</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="D74" s="8">
-        <v>0.98496499999999998</v>
+        <v>0.94690700000000005</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="8">
+      <c r="A75" s="13">
         <v>10</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="D75" s="8">
-        <v>0.98460300000000001</v>
+        <v>0.94166799999999995</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="7" t="s">
-        <v>9</v>
+      <c r="A77" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="8">
+      <c r="A78" s="13">
         <v>1</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="D78" s="8">
-        <v>0.99986900000000001</v>
+        <v>0.99110399999999998</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="8">
+      <c r="A79" s="13">
         <v>2</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="D79" s="8">
-        <v>0.99803399999999998</v>
+        <v>0.98607400000000001</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="8">
+      <c r="A80" s="13">
         <v>3</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="D80" s="8">
-        <v>0.99651299999999998</v>
+        <v>0.98400699999999997</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="8">
+      <c r="A81" s="13">
         <v>4</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="D81" s="8">
-        <v>0.99619800000000003</v>
+        <v>0.96474599999999999</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="8">
+      <c r="A82" s="13">
         <v>5</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="D82" s="8">
-        <v>0.99618899999999999</v>
+        <v>0.95857400000000004</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="8">
+      <c r="A83" s="13">
         <v>6</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D83" s="8">
-        <v>0.99416199999999999</v>
+        <v>0.94331200000000004</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="8">
+      <c r="A84" s="13">
         <v>7</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="D84" s="8">
-        <v>0.98928199999999999</v>
+        <v>0.94316299999999997</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="8">
+      <c r="A85" s="13">
         <v>8</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="D85" s="8">
-        <v>0.98846599999999996</v>
+        <v>0.94256799999999996</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="8">
+      <c r="A86" s="13">
         <v>9</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D86" s="8">
-        <v>0.98227299999999995</v>
+        <v>0.92829300000000003</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="8">
+      <c r="A87" s="13">
         <v>10</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D87" s="8">
-        <v>0.97731299999999999</v>
+        <v>0.917848</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="7" t="s">
-        <v>9</v>
+      <c r="A89" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="8">
+      <c r="A90" s="13">
         <v>1</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="D90" s="8">
-        <v>0.99499400000000005</v>
+        <v>0.99027500000000002</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="8">
+      <c r="A91" s="13">
         <v>2</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D91" s="8">
-        <v>0.982819</v>
+        <v>0.97759600000000002</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="8">
+      <c r="A92" s="13">
         <v>3</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="D92" s="8">
-        <v>0.97949399999999998</v>
+        <v>0.975966</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="8">
+      <c r="A93" s="13">
         <v>4</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="D93" s="8">
-        <v>0.96548699999999998</v>
+        <v>0.97137700000000005</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="8">
+      <c r="A94" s="13">
         <v>5</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>135</v>
       </c>
       <c r="C94" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D94" s="8">
+        <v>0.96489400000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="13">
+        <v>6</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D95" s="8">
+        <v>0.96456799999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="13">
+        <v>7</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D96" s="8">
+        <v>0.96188200000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="13">
+        <v>8</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D97" s="8">
+        <v>0.95780500000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="13">
+        <v>9</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C98" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D94" s="8">
-        <v>0.96360999999999997</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="8">
-        <v>6</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D95" s="8">
-        <v>0.96116999999999997</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="8">
-        <v>7</v>
-      </c>
-      <c r="B96" s="8" t="s">
+      <c r="D98" s="8">
+        <v>0.95775699999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="13">
+        <v>10</v>
+      </c>
+      <c r="B99" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C99" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D96" s="8">
-        <v>0.95963900000000002</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="8">
-        <v>8</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D97" s="8">
-        <v>0.95228800000000002</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="8">
-        <v>9</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D98" s="8">
-        <v>0.94954499999999997</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="8">
-        <v>10</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>142</v>
-      </c>
       <c r="D99" s="8">
-        <v>0.944635</v>
+        <v>0.95690299999999995</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -12307,16 +12587,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="E1" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -12338,16 +12618,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -12369,16 +12649,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -12400,16 +12680,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -12447,16 +12727,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -12605,13 +12885,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -12672,7 +12952,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -12709,7 +12989,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -12762,7 +13042,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -12841,8 +13121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12856,7 +13136,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -12896,7 +13176,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
